--- a/tmp/Gods of the deep - CCSL/Gods of the deep - CCSL.docx-total-recap.xlsx
+++ b/tmp/Gods of the deep - CCSL/Gods of the deep - CCSL.docx-total-recap.xlsx
@@ -462,6 +462,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -487,12 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Characters</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Blocks (50)</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
@@ -503,9 +501,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
-      </c>
-      <c r="C4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -516,9 +511,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3384</v>
-      </c>
-      <c r="C5" t="n">
         <v>68</v>
       </c>
     </row>
@@ -529,9 +521,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
-      </c>
-      <c r="C6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -542,9 +531,6 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -555,22 +541,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5011</v>
-      </c>
-      <c r="C8" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - HANK Oâ€™CONNELL</t>
+          <t>6 - HANK O’CONNELL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C9" t="n">
         <v>39</v>
       </c>
     </row>
@@ -581,9 +561,6 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2632</v>
-      </c>
-      <c r="C10" t="n">
         <v>53</v>
       </c>
     </row>
@@ -594,9 +571,6 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>365</v>
-      </c>
-      <c r="C11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -607,9 +581,6 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6530</v>
-      </c>
-      <c r="C12" t="n">
         <v>131</v>
       </c>
     </row>
@@ -620,9 +591,6 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1191</v>
-      </c>
-      <c r="C13" t="n">
         <v>24</v>
       </c>
     </row>
@@ -633,9 +601,6 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -646,9 +611,6 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C15" t="n">
         <v>21</v>
       </c>
     </row>
@@ -659,9 +621,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504</v>
-      </c>
-      <c r="C16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -672,9 +631,6 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582</v>
-      </c>
-      <c r="C17" t="n">
         <v>32</v>
       </c>
     </row>
@@ -685,9 +641,6 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58</v>
-      </c>
-      <c r="C18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -698,9 +651,6 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103</v>
-      </c>
-      <c r="C19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -711,22 +661,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1591</v>
-      </c>
-      <c r="C20" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - HANK Oâ€™CONNOLL</t>
+          <t>18 - HANK O’CONNOLL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>451</v>
-      </c>
-      <c r="C21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -737,9 +681,6 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>932</v>
-      </c>
-      <c r="C22" t="n">
         <v>19</v>
       </c>
     </row>
@@ -750,9 +691,6 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>898</v>
-      </c>
-      <c r="C23" t="n">
         <v>18</v>
       </c>
     </row>
@@ -763,9 +701,6 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>197</v>
-      </c>
-      <c r="C24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -776,9 +711,6 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>938</v>
-      </c>
-      <c r="C25" t="n">
         <v>19</v>
       </c>
     </row>
@@ -789,22 +721,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - JIMâ€™S DAD</t>
+          <t>24 - JIM’S DAD</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78</v>
-      </c>
-      <c r="C27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -815,9 +741,6 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115</v>
-      </c>
-      <c r="C28" t="n">
         <v>3</v>
       </c>
     </row>

--- a/tmp/Gods of the deep - CCSL/Gods of the deep - CCSL.docx-total-recap.xlsx
+++ b/tmp/Gods of the deep - CCSL/Gods of the deep - CCSL.docx-total-recap.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
